--- a/core/results/df_others_ss100.xlsx
+++ b/core/results/df_others_ss100.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.00879999999999</v>
+        <v>91.2497</v>
       </c>
       <c r="C2" t="n">
-        <v>76.211</v>
+        <v>78.9928</v>
       </c>
       <c r="D2" t="n">
-        <v>89.29600000000001</v>
+        <v>90.90300000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>78.0976</v>
+        <v>79.0363</v>
       </c>
       <c r="F2" t="n">
-        <v>24.06</v>
+        <v>25.0133</v>
       </c>
       <c r="G2" t="n">
-        <v>61.0331</v>
+        <v>65.0941</v>
       </c>
     </row>
     <row r="3">
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.1357</v>
+        <v>89.05540000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>83.709</v>
+        <v>83.693</v>
       </c>
       <c r="D3" t="n">
-        <v>92.7116</v>
+        <v>92.752</v>
       </c>
       <c r="E3" t="n">
-        <v>84.6266</v>
+        <v>84.7726</v>
       </c>
       <c r="F3" t="n">
-        <v>30.8667</v>
+        <v>31.28</v>
       </c>
       <c r="G3" t="n">
         <v>69.4834</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.38639999999999</v>
+        <v>88.4132</v>
       </c>
       <c r="C4" t="n">
         <v>82.494</v>
@@ -539,7 +539,7 @@
         <v>83.81310000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>28.58</v>
+        <v>28.5867</v>
       </c>
       <c r="G4" t="n">
         <v>67.5127</v>
@@ -555,19 +555,19 @@
         <v>89.37649999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>83.1015</v>
+        <v>83.0376</v>
       </c>
       <c r="D5" t="n">
-        <v>92.57040000000001</v>
+        <v>92.604</v>
       </c>
       <c r="E5" t="n">
-        <v>83.834</v>
+        <v>83.7505</v>
       </c>
       <c r="F5" t="n">
-        <v>31.4933</v>
+        <v>31.5867</v>
       </c>
       <c r="G5" t="n">
-        <v>68.946</v>
+        <v>68.8265</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.0822</v>
+        <v>89.16240000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>83.80500000000001</v>
+        <v>83.741</v>
       </c>
       <c r="D6" t="n">
-        <v>92.7452</v>
+        <v>92.6915</v>
       </c>
       <c r="E6" t="n">
-        <v>84.81440000000001</v>
+        <v>84.64749999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>30.74</v>
+        <v>30.86</v>
       </c>
       <c r="G6" t="n">
-        <v>69.3043</v>
+        <v>69.57299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.7343</v>
+        <v>87.985</v>
       </c>
       <c r="C7" t="n">
-        <v>72.3421</v>
+        <v>74.66030000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>85.1005</v>
+        <v>86.06870000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>76.7418</v>
+        <v>77.9725</v>
       </c>
       <c r="F7" t="n">
-        <v>23.24</v>
+        <v>21.9933</v>
       </c>
       <c r="G7" t="n">
-        <v>56.1362</v>
+        <v>57.3903</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.5103</v>
+        <v>89.59059999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>80.3997</v>
+        <v>81.4708</v>
       </c>
       <c r="D8" t="n">
-        <v>91.70310000000001</v>
+        <v>92.22750000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>81.49769999999999</v>
+        <v>82.26949999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>27.2867</v>
+        <v>28.32</v>
       </c>
       <c r="G8" t="n">
-        <v>65.0343</v>
+        <v>66.34820000000001</v>
       </c>
     </row>
     <row r="9">

--- a/core/results/df_others_ss100.xlsx
+++ b/core/results/df_others_ss100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,200 +473,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>FedAvg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.2497</v>
+        <v>89.05540000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>78.9928</v>
+        <v>83.693</v>
       </c>
       <c r="D2" t="n">
-        <v>90.90300000000001</v>
+        <v>92.752</v>
       </c>
       <c r="E2" t="n">
-        <v>79.0363</v>
+        <v>84.7726</v>
       </c>
       <c r="F2" t="n">
-        <v>25.0133</v>
+        <v>31.28</v>
       </c>
       <c r="G2" t="n">
-        <v>65.0941</v>
+        <v>69.4834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FedAvg</t>
+          <t>FedProx</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.05540000000001</v>
+        <v>88.4132</v>
       </c>
       <c r="C3" t="n">
-        <v>83.693</v>
+        <v>82.494</v>
       </c>
       <c r="D3" t="n">
-        <v>92.752</v>
+        <v>92.4091</v>
       </c>
       <c r="E3" t="n">
-        <v>84.7726</v>
+        <v>83.81310000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>31.28</v>
+        <v>28.5867</v>
       </c>
       <c r="G3" t="n">
-        <v>69.4834</v>
+        <v>67.5127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FedProx</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.4132</v>
+        <v>89.37649999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>82.494</v>
+        <v>83.0376</v>
       </c>
       <c r="D4" t="n">
-        <v>92.4091</v>
+        <v>92.604</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81310000000001</v>
+        <v>83.7505</v>
       </c>
       <c r="F4" t="n">
-        <v>28.5867</v>
+        <v>31.5867</v>
       </c>
       <c r="G4" t="n">
-        <v>67.5127</v>
+        <v>68.8265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.37649999999999</v>
+        <v>89.16240000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>83.0376</v>
+        <v>83.741</v>
       </c>
       <c r="D5" t="n">
-        <v>92.604</v>
+        <v>92.6915</v>
       </c>
       <c r="E5" t="n">
-        <v>83.7505</v>
+        <v>84.64749999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>31.5867</v>
+        <v>30.86</v>
       </c>
       <c r="G5" t="n">
-        <v>68.8265</v>
+        <v>69.57299999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>FedProto</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.16240000000001</v>
+        <v>87.985</v>
       </c>
       <c r="C6" t="n">
-        <v>83.741</v>
+        <v>74.66030000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>92.6915</v>
+        <v>86.06870000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>84.64749999999999</v>
+        <v>77.9725</v>
       </c>
       <c r="F6" t="n">
-        <v>30.86</v>
+        <v>21.9933</v>
       </c>
       <c r="G6" t="n">
-        <v>69.57299999999999</v>
+        <v>57.3903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FedProto</t>
+          <t>DBE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.985</v>
+        <v>89.59059999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>74.66030000000001</v>
+        <v>81.4708</v>
       </c>
       <c r="D7" t="n">
-        <v>86.06870000000001</v>
+        <v>92.22750000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>77.9725</v>
+        <v>82.26949999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9933</v>
+        <v>28.32</v>
       </c>
       <c r="G7" t="n">
-        <v>57.3903</v>
+        <v>66.34820000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DBE</t>
+          <t>MPFT (average)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.59059999999999</v>
+        <v>86.43300000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>81.4708</v>
+        <v>81.45480000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>92.22750000000001</v>
+        <v>91.1921</v>
       </c>
       <c r="E8" t="n">
-        <v>82.26949999999999</v>
+        <v>81.4143</v>
       </c>
       <c r="F8" t="n">
-        <v>28.32</v>
+        <v>49.84</v>
       </c>
       <c r="G8" t="n">
-        <v>66.34820000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MPFT (average)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>86.43300000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>81.45480000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>91.1921</v>
-      </c>
-      <c r="E9" t="n">
-        <v>81.4143</v>
-      </c>
-      <c r="F9" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="G9" t="n">
         <v>67.3335</v>
       </c>
     </row>
